--- a/docs/StructureDefinition-DecompressionSickness.xlsx
+++ b/docs/StructureDefinition-DecompressionSickness.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T22:56:50-05:00</t>
+    <t>2025-06-01T23:37:11-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DecompressionSickness.xlsx
+++ b/docs/StructureDefinition-DecompressionSickness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-01T23:37:11-05:00</t>
+    <t>2025-12-25T11:43:35-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,7 +373,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -598,7 +598,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-category</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-category|4.0.1</t>
   </si>
   <si>
     <t>&lt; 404684003 |Clinical finding|</t>
@@ -625,7 +625,7 @@
     <t>Coding of the severity with a terminology is preferred, where possible.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-severity|4.0.1</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -674,7 +674,7 @@
     <t>Identification of the condition or diagnosis.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -719,7 +719,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -738,7 +738,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -766,7 +766,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -866,7 +866,7 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -977,7 +977,7 @@
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-1
@@ -990,7 +990,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
+    <t xml:space="preserve">Reference(ClinicalImpression|4.0.1|DiagnosticReport|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1015,7 +1015,7 @@
     <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage-type|4.0.1</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage type"]</t>
@@ -1068,7 +1068,7 @@
     <t>Codes that describe the manifestation or symptoms of a condition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
+    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1087,7 +1087,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1557,7 +1557,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.52734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1572,7 +1572,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.6640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.17578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
@@ -3278,7 +3278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>191</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>261</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>341</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>350</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>359</v>
       </c>
@@ -8292,12 +8292,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP56">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-DecompressionSickness.xlsx
+++ b/docs/StructureDefinition-DecompressionSickness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-25T11:43:35-07:00</t>
+    <t>2025-12-29T13:16:13-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DecompressionSickness.xlsx
+++ b/docs/StructureDefinition-DecompressionSickness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T13:16:13-07:00</t>
+    <t>2025-12-29T20:17:52-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DecompressionSickness.xlsx
+++ b/docs/StructureDefinition-DecompressionSickness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T20:17:52-07:00</t>
+    <t>2025-12-29T22:23:37-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DecompressionSickness.xlsx
+++ b/docs/StructureDefinition-DecompressionSickness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T22:23:37-07:00</t>
+    <t>2025-12-29T23:18:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DecompressionSickness.xlsx
+++ b/docs/StructureDefinition-DecompressionSickness.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T23:18:22-07:00</t>
+    <t>2025-12-30T00:07:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DecompressionSickness.xlsx
+++ b/docs/StructureDefinition-DecompressionSickness.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-30T13:15:27-07:00</t>
+    <t>2025-12-30T19:11:20-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
